--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId1"/>
@@ -377,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -404,33 +404,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -454,32 +441,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
@@ -490,7 +451,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -501,7 +462,6 @@
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,8 +497,8 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="4" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="4" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -547,12 +507,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="4" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,7 +522,7 @@
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1090,7 +1044,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1136,7 +1090,7 @@
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="6">
@@ -1144,17 +1098,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="6">
@@ -1162,17 +1116,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="6">
@@ -1180,35 +1134,35 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1216,96 +1170,96 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="42.75">
       <c r="B11" s="6">
-        <f>B10+1</f>
+        <f t="shared" ref="B11:B25" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="57">
       <c r="B12" s="6">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="71.25">
       <c r="B13" s="6">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6">
-        <f t="shared" ref="B14:B25" si="0">B13+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18">
       <c r="B18" s="6">
@@ -1314,7 +1268,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19">
       <c r="B19" s="6">
@@ -1323,7 +1277,7 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20">
       <c r="B20" s="6">
@@ -1332,7 +1286,7 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21">
       <c r="B21" s="6">
@@ -1341,7 +1295,7 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22">
       <c r="B22" s="6">
@@ -1350,7 +1304,7 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23">
       <c r="B23" s="6">
@@ -1359,7 +1313,7 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24">
       <c r="B24" s="6">
@@ -1368,7 +1322,7 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25">
       <c r="B25" s="6">
@@ -1377,17 +1331,17 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26">
       <c r="E26" s="1"/>
     </row>
     <row r="27">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1466,13 +1420,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="24"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1484,13 +1438,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="26"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1502,35 +1456,35 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1538,179 +1492,179 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="57">
       <c r="B11" s="6">
-        <f>B10+1</f>
+        <f t="shared" ref="B11:B26" si="1">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="71.25">
       <c r="B12" s="6">
-        <f>B11+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="71.25">
       <c r="B13" s="6">
-        <f>B12+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6">
-        <f t="shared" ref="B14:B26" si="1">B13+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15">
       <c r="B15" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16">
       <c r="B16" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17">
       <c r="B17" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18">
       <c r="B18" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19">
       <c r="B19" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20">
       <c r="B20" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21">
       <c r="B21" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22">
       <c r="B22" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23">
       <c r="B23" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24">
       <c r="B24" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25">
       <c r="B25" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26">
       <c r="B26" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27">
       <c r="E27" s="1"/>
     </row>
     <row r="28">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1790,13 +1744,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1808,13 +1762,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1826,35 +1780,35 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1862,225 +1816,225 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="42.75">
       <c r="B11" s="6">
-        <f>B10+1</f>
+        <f t="shared" ref="B11:B30" si="2">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" ht="42.75">
       <c r="B12" s="6">
-        <f>B11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" ht="57">
       <c r="B13" s="6">
-        <f>B12+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" ht="57">
       <c r="B14" s="6">
-        <f>B13+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6">
-        <f t="shared" ref="B15:B30" si="2">B14+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16">
       <c r="B16" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17">
       <c r="B17" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18">
       <c r="B18" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19">
       <c r="B19" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20">
       <c r="B20" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21">
       <c r="B21" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22">
       <c r="B22" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23">
       <c r="B23" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24">
       <c r="B24" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25">
       <c r="B25" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26">
       <c r="B26" s="6">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27">
       <c r="B27" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28">
       <c r="B28" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29">
       <c r="B29" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30">
       <c r="B30" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31">
       <c r="E31" s="1"/>
     </row>
     <row r="32">
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2157,11 +2111,11 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2169,11 +2123,11 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2181,28 +2135,28 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1"/>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2210,283 +2164,283 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="71.25">
       <c r="B11" s="6">
-        <f>B10+1</f>
+        <f t="shared" ref="B11:B30" si="3">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" ht="28.5">
       <c r="B12" s="6">
-        <f>B11+1</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="42.75">
       <c r="B13" s="6">
-        <f>B12+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" ht="71.25">
       <c r="B14" s="6">
-        <f>B13+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" ht="42.75">
       <c r="B15" s="6">
-        <f>B14+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" ht="71.25">
       <c r="B16" s="6">
-        <f>B15+1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" ht="71.25">
       <c r="B17" s="6">
-        <f>B16+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="6">
-        <f t="shared" ref="B18:B30" si="3">B17+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19">
       <c r="B19" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20">
       <c r="B20" s="6">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21">
       <c r="B21" s="6">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22">
       <c r="B22" s="6">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23">
       <c r="B23" s="6">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24">
       <c r="B24" s="6">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25">
       <c r="B25" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26">
       <c r="B26" s="6">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27">
       <c r="B27" s="6">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28">
       <c r="B28" s="6">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29">
       <c r="B29" s="6">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30">
       <c r="B30" s="6">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31">
       <c r="E31" s="1"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
